--- a/Projects/Project-2/Project2_Update/submission_df_proj_2_624.xlsx
+++ b/Projects/Project-2/Project2_Update/submission_df_proj_2_624.xlsx
@@ -631,7 +631,7 @@
         <v>-3.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.44112586975098</v>
+        <v>8.57001686096191</v>
       </c>
       <c r="AA2" t="n">
         <v>0.022</v>
@@ -732,7 +732,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.47869396209717</v>
+        <v>8.40424537658691</v>
       </c>
       <c r="AA3" t="n">
         <v>0.03</v>
@@ -833,7 +833,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.49783325195312</v>
+        <v>8.57407283782959</v>
       </c>
       <c r="AA4" t="n">
         <v>0.046</v>
@@ -930,7 +930,7 @@
         <v>-4</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.56261348724365</v>
+        <v>8.58130741119385</v>
       </c>
       <c r="AA5"/>
       <c r="AB5" t="n">
@@ -1029,7 +1029,7 @@
         <v>-4</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.40277576446533</v>
+        <v>8.42064952850342</v>
       </c>
       <c r="AA6" t="n">
         <v>0.082</v>
@@ -1128,7 +1128,7 @@
         <v>-3.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.47799301147461</v>
+        <v>8.4248514175415</v>
       </c>
       <c r="AA7" t="n">
         <v>0.064</v>
@@ -1229,7 +1229,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.53549766540527</v>
+        <v>8.46218204498291</v>
       </c>
       <c r="AA8" t="n">
         <v>0.042</v>
@@ -1324,7 +1324,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.54057884216309</v>
+        <v>8.55373477935791</v>
       </c>
       <c r="AA9" t="n">
         <v>0.096</v>
@@ -1425,7 +1425,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.60016918182373</v>
+        <v>8.61996173858643</v>
       </c>
       <c r="AA10" t="n">
         <v>0.046</v>
@@ -1524,7 +1524,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.79102230072021</v>
+        <v>8.68256759643555</v>
       </c>
       <c r="AA11" t="n">
         <v>0.096</v>
@@ -1621,7 +1621,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.55777549743652</v>
+        <v>8.49843883514404</v>
       </c>
       <c r="AA12" t="n">
         <v>0.066</v>
@@ -1722,7 +1722,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.49872016906738</v>
+        <v>8.46738338470459</v>
       </c>
       <c r="AA13" t="n">
         <v>0.048</v>
@@ -1823,7 +1823,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.52103137969971</v>
+        <v>8.51375484466553</v>
       </c>
       <c r="AA14" t="n">
         <v>0.066</v>
@@ -1924,7 +1924,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.6288423538208</v>
+        <v>8.66670322418213</v>
       </c>
       <c r="AA15" t="n">
         <v>0.05</v>
@@ -2025,7 +2025,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.27851486206055</v>
+        <v>8.22079563140869</v>
       </c>
       <c r="AA16" t="n">
         <v>0.046</v>
@@ -2122,7 +2122,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5226583480835</v>
+        <v>8.60568237304688</v>
       </c>
       <c r="AA17" t="n">
         <v>0.16</v>
@@ -2223,7 +2223,7 @@
         <v>-4</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.65246963500977</v>
+        <v>8.61392211914062</v>
       </c>
       <c r="AA18" t="n">
         <v>0.102</v>
@@ -2324,7 +2324,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.54634952545166</v>
+        <v>8.47013187408447</v>
       </c>
       <c r="AA19" t="n">
         <v>0.06</v>
@@ -2425,7 +2425,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.54038238525391</v>
+        <v>8.49514675140381</v>
       </c>
       <c r="AA20" t="n">
         <v>0.154</v>
@@ -2526,7 +2526,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.61194038391113</v>
+        <v>8.70173263549805</v>
       </c>
       <c r="AA21" t="n">
         <v>0.022</v>
@@ -2627,7 +2627,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.64271640777588</v>
+        <v>8.64208602905273</v>
       </c>
       <c r="AA22" t="n">
         <v>0.022</v>
@@ -2726,7 +2726,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.70717430114746</v>
+        <v>8.62834644317627</v>
       </c>
       <c r="AA23" t="n">
         <v>0.054</v>
@@ -2823,7 +2823,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.56928825378418</v>
+        <v>8.48035144805908</v>
       </c>
       <c r="AA24" t="n">
         <v>0.022</v>
@@ -2924,7 +2924,7 @@
         <v>-4</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.56839656829834</v>
+        <v>8.43483638763428</v>
       </c>
       <c r="AA25" t="n">
         <v>0.022</v>
@@ -3025,7 +3025,7 @@
         <v>-4.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.58784103393555</v>
+        <v>8.62230682373047</v>
       </c>
       <c r="AA26" t="n">
         <v>0.024</v>
@@ -3126,7 +3126,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.37840938568115</v>
+        <v>8.51550579071045</v>
       </c>
       <c r="AA27" t="n">
         <v>0.022</v>
@@ -3227,7 +3227,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.40721893310547</v>
+        <v>8.27421474456787</v>
       </c>
       <c r="AA28" t="n">
         <v>0.022</v>
@@ -3328,7 +3328,7 @@
         <v>-3.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.68492603302002</v>
+        <v>8.65104103088379</v>
       </c>
       <c r="AA29" t="n">
         <v>0.174</v>
@@ -3427,7 +3427,7 @@
         <v>-3.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.74307823181152</v>
+        <v>8.70288372039795</v>
       </c>
       <c r="AA30" t="n">
         <v>0.022</v>
@@ -3528,7 +3528,7 @@
         <v>-4</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.81494522094727</v>
+        <v>8.82496452331543</v>
       </c>
       <c r="AA31" t="n">
         <v>0.024</v>
@@ -3629,7 +3629,7 @@
         <v>-4</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.73729801177979</v>
+        <v>8.71469211578369</v>
       </c>
       <c r="AA32" t="n">
         <v>0.066</v>
@@ -3728,7 +3728,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.72241973876953</v>
+        <v>8.7143087387085</v>
       </c>
       <c r="AA33" t="n">
         <v>0.024</v>
@@ -3827,7 +3827,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.70730781555176</v>
+        <v>8.6933765411377</v>
       </c>
       <c r="AA34" t="n">
         <v>0.022</v>
@@ -3926,7 +3926,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.71499443054199</v>
+        <v>8.75243282318115</v>
       </c>
       <c r="AA35" t="n">
         <v>0.022</v>
@@ -4025,7 +4025,7 @@
         <v>-4</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.72624588012695</v>
+        <v>8.59580993652344</v>
       </c>
       <c r="AA36" t="n">
         <v>0.036</v>
@@ -4126,7 +4126,7 @@
         <v>-4</v>
       </c>
       <c r="Z37" t="n">
-        <v>8.58924198150635</v>
+        <v>8.5474271774292</v>
       </c>
       <c r="AA37" t="n">
         <v>0.022</v>
@@ -4227,7 +4227,7 @@
         <v>-3.6</v>
       </c>
       <c r="Z38" t="n">
-        <v>8.5075569152832</v>
+        <v>8.37264919281006</v>
       </c>
       <c r="AA38" t="n">
         <v>0.022</v>
@@ -4328,7 +4328,7 @@
         <v>-3.6</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.48729705810547</v>
+        <v>8.4405460357666</v>
       </c>
       <c r="AA39" t="n">
         <v>0.022</v>
@@ -4429,7 +4429,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>8.69856452941895</v>
+        <v>8.67906951904297</v>
       </c>
       <c r="AA40" t="n">
         <v>0.052</v>
@@ -4528,7 +4528,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>8.78521060943604</v>
+        <v>8.70575332641602</v>
       </c>
       <c r="AA41" t="n">
         <v>0.05</v>
@@ -4629,7 +4629,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.73170375823975</v>
+        <v>8.83639240264893</v>
       </c>
       <c r="AA42" t="n">
         <v>0.042</v>
@@ -4728,7 +4728,7 @@
         <v>-4.6</v>
       </c>
       <c r="Z43" t="n">
-        <v>8.6320858001709</v>
+        <v>8.59466075897217</v>
       </c>
       <c r="AA43" t="n">
         <v>0.024</v>
@@ -4829,7 +4829,7 @@
         <v>-5</v>
       </c>
       <c r="Z44" t="n">
-        <v>8.28812408447266</v>
+        <v>8.34148979187012</v>
       </c>
       <c r="AA44" t="n">
         <v>0.022</v>
@@ -4930,7 +4930,7 @@
         <v>-5</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.35856628417969</v>
+        <v>8.17555141448975</v>
       </c>
       <c r="AA45" t="n">
         <v>0.022</v>
@@ -5031,7 +5031,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.69560146331787</v>
+        <v>8.71428203582764</v>
       </c>
       <c r="AA46" t="n">
         <v>0.024</v>
@@ -5132,7 +5132,7 @@
         <v>-5</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.73855495452881</v>
+        <v>8.69364166259766</v>
       </c>
       <c r="AA47" t="n">
         <v>0.036</v>
@@ -5233,7 +5233,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z48" t="n">
-        <v>8.69375133514404</v>
+        <v>8.77291488647461</v>
       </c>
       <c r="AA48" t="n">
         <v>0.036</v>
@@ -5334,7 +5334,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z49" t="n">
-        <v>8.66115570068359</v>
+        <v>8.72737312316895</v>
       </c>
       <c r="AA49" t="n">
         <v>0.024</v>
@@ -5435,7 +5435,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.66726303100586</v>
+        <v>8.68868446350098</v>
       </c>
       <c r="AA50" t="n">
         <v>0.024</v>
@@ -5536,7 +5536,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z51" t="n">
-        <v>8.73533916473389</v>
+        <v>8.82503604888916</v>
       </c>
       <c r="AA51" t="n">
         <v>0.024</v>
@@ -5633,7 +5633,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z52" t="n">
-        <v>8.58542919158936</v>
+        <v>8.6613597869873</v>
       </c>
       <c r="AA52" t="n">
         <v>0.07</v>
@@ -5734,7 +5734,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z53" t="n">
-        <v>8.70940685272217</v>
+        <v>8.62845993041992</v>
       </c>
       <c r="AA53" t="n">
         <v>0.022</v>
@@ -5833,7 +5833,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z54" t="n">
-        <v>8.71244144439697</v>
+        <v>8.77349185943604</v>
       </c>
       <c r="AA54" t="n">
         <v>0.122</v>
@@ -5932,7 +5932,7 @@
         <v>-5</v>
       </c>
       <c r="Z55" t="n">
-        <v>8.70154285430908</v>
+        <v>8.65603446960449</v>
       </c>
       <c r="AA55" t="n">
         <v>0.024</v>
@@ -6033,7 +6033,7 @@
         <v>-5</v>
       </c>
       <c r="Z56" t="n">
-        <v>8.84345817565918</v>
+        <v>8.91154861450195</v>
       </c>
       <c r="AA56" t="n">
         <v>0.024</v>
@@ -6134,7 +6134,7 @@
         <v>-5</v>
       </c>
       <c r="Z57" t="n">
-        <v>8.741135597229</v>
+        <v>8.75294971466064</v>
       </c>
       <c r="AA57" t="n">
         <v>0.042</v>
@@ -6235,7 +6235,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z58" t="n">
-        <v>8.4166431427002</v>
+        <v>8.38523101806641</v>
       </c>
       <c r="AA58" t="n">
         <v>0.12</v>
@@ -6336,7 +6336,7 @@
         <v>-5</v>
       </c>
       <c r="Z59" t="n">
-        <v>8.51451778411865</v>
+        <v>8.52967262268066</v>
       </c>
       <c r="AA59" t="n">
         <v>0.068</v>
@@ -6437,7 +6437,7 @@
         <v>-5</v>
       </c>
       <c r="Z60" t="n">
-        <v>8.69937705993652</v>
+        <v>8.72631645202637</v>
       </c>
       <c r="AA60" t="n">
         <v>0.066</v>
@@ -6538,7 +6538,7 @@
         <v>-4.6</v>
       </c>
       <c r="Z61" t="n">
-        <v>8.79160690307617</v>
+        <v>8.78775596618652</v>
       </c>
       <c r="AA61" t="n">
         <v>0.042</v>
@@ -6639,7 +6639,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z62" t="n">
-        <v>8.76120185852051</v>
+        <v>8.7825813293457</v>
       </c>
       <c r="AA62" t="n">
         <v>0.058</v>
@@ -6740,7 +6740,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z63" t="n">
-        <v>8.68792724609375</v>
+        <v>8.71673393249512</v>
       </c>
       <c r="AA63" t="n">
         <v>0.058</v>
@@ -6841,7 +6841,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z64" t="n">
-        <v>8.74401473999023</v>
+        <v>8.60438442230225</v>
       </c>
       <c r="AA64" t="n">
         <v>0.092</v>
@@ -6942,7 +6942,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z65" t="n">
-        <v>8.79466819763184</v>
+        <v>8.73706245422363</v>
       </c>
       <c r="AA65" t="n">
         <v>0.146</v>
@@ -7043,7 +7043,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z66" t="n">
-        <v>8.80472946166992</v>
+        <v>8.80460453033447</v>
       </c>
       <c r="AA66" t="n">
         <v>0.108</v>
@@ -7144,7 +7144,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z67" t="n">
-        <v>8.71307563781738</v>
+        <v>8.73938655853271</v>
       </c>
       <c r="AA67" t="n">
         <v>0.05</v>
@@ -7245,7 +7245,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z68" t="n">
-        <v>8.63950729370117</v>
+        <v>8.55041790008545</v>
       </c>
       <c r="AA68" t="n">
         <v>0.158</v>
@@ -7346,7 +7346,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.57692241668701</v>
+        <v>8.56538486480713</v>
       </c>
       <c r="AA69" t="n">
         <v>0.138</v>
@@ -7447,7 +7447,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z70" t="n">
-        <v>8.64366722106934</v>
+        <v>8.58957290649414</v>
       </c>
       <c r="AA70" t="n">
         <v>0.132</v>
@@ -7548,7 +7548,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z71" t="n">
-        <v>8.55039978027344</v>
+        <v>8.57496547698975</v>
       </c>
       <c r="AA71" t="n">
         <v>0.172</v>
@@ -7649,7 +7649,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z72" t="n">
-        <v>8.45577239990234</v>
+        <v>8.53406429290771</v>
       </c>
       <c r="AA72" t="n">
         <v>0.22</v>
@@ -7750,7 +7750,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z73" t="n">
-        <v>8.39291858673096</v>
+        <v>8.39733409881592</v>
       </c>
       <c r="AA73" t="n">
         <v>0.126</v>
@@ -7851,7 +7851,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z74" t="n">
-        <v>8.52301597595215</v>
+        <v>8.53350639343262</v>
       </c>
       <c r="AA74" t="n">
         <v>0.086</v>
@@ -7952,7 +7952,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z75" t="n">
-        <v>8.48736381530762</v>
+        <v>8.53389644622803</v>
       </c>
       <c r="AA75" t="n">
         <v>0.116</v>
@@ -8053,7 +8053,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z76" t="n">
-        <v>8.56830310821533</v>
+        <v>8.59876155853271</v>
       </c>
       <c r="AA76" t="n">
         <v>0.068</v>
@@ -8154,7 +8154,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z77" t="n">
-        <v>8.43398189544678</v>
+        <v>8.60030460357666</v>
       </c>
       <c r="AA77" t="n">
         <v>0.06</v>
@@ -8255,7 +8255,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z78" t="n">
-        <v>8.51296138763428</v>
+        <v>8.56622314453125</v>
       </c>
       <c r="AA78" t="n">
         <v>0.044</v>
@@ -8354,7 +8354,7 @@
         <v>-5</v>
       </c>
       <c r="Z79" t="n">
-        <v>8.74660110473633</v>
+        <v>8.65571212768555</v>
       </c>
       <c r="AA79" t="n">
         <v>0.076</v>
@@ -8455,7 +8455,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z80" t="n">
-        <v>8.67472457885742</v>
+        <v>8.73631954193115</v>
       </c>
       <c r="AA80" t="n">
         <v>0.058</v>
@@ -8556,7 +8556,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z81" t="n">
-        <v>8.58337211608887</v>
+        <v>8.63353252410889</v>
       </c>
       <c r="AA81" t="n">
         <v>0.052</v>
@@ -8657,7 +8657,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z82" t="n">
-        <v>8.76876449584961</v>
+        <v>8.82749176025391</v>
       </c>
       <c r="AA82" t="n">
         <v>0.07</v>
@@ -8758,7 +8758,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z83" t="n">
-        <v>8.77569675445557</v>
+        <v>8.74227905273438</v>
       </c>
       <c r="AA83" t="n">
         <v>0.168</v>
@@ -8859,7 +8859,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z84" t="n">
-        <v>8.64453315734863</v>
+        <v>8.7149600982666</v>
       </c>
       <c r="AA84" t="n">
         <v>0.17</v>
@@ -8960,7 +8960,7 @@
         <v>-4.4</v>
       </c>
       <c r="Z85" t="n">
-        <v>8.69744110107422</v>
+        <v>8.60677146911621</v>
       </c>
       <c r="AA85" t="n">
         <v>0.09</v>
@@ -9055,7 +9055,7 @@
         <v>-4.2</v>
       </c>
       <c r="Z86" t="n">
-        <v>8.65873050689697</v>
+        <v>8.72494888305664</v>
       </c>
       <c r="AA86"/>
       <c r="AB86" t="n">
@@ -9152,7 +9152,7 @@
         <v>-5</v>
       </c>
       <c r="Z87" t="n">
-        <v>8.70337390899658</v>
+        <v>8.739990234375</v>
       </c>
       <c r="AA87" t="n">
         <v>0.068</v>
@@ -9253,7 +9253,7 @@
         <v>-5</v>
       </c>
       <c r="Z88" t="n">
-        <v>8.74023914337158</v>
+        <v>8.71679496765137</v>
       </c>
       <c r="AA88" t="n">
         <v>0.046</v>
@@ -9354,7 +9354,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z89" t="n">
-        <v>8.62914371490479</v>
+        <v>8.62327766418457</v>
       </c>
       <c r="AA89" t="n">
         <v>0.066</v>
@@ -9455,7 +9455,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z90" t="n">
-        <v>8.48122596740723</v>
+        <v>8.48691272735596</v>
       </c>
       <c r="AA90" t="n">
         <v>0.194</v>
@@ -9556,7 +9556,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z91" t="n">
-        <v>8.67861461639404</v>
+        <v>8.65784645080566</v>
       </c>
       <c r="AA91" t="n">
         <v>0.082</v>
@@ -9655,7 +9655,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z92" t="n">
-        <v>8.57924365997314</v>
+        <v>8.68164539337158</v>
       </c>
       <c r="AA92" t="n">
         <v>0.084</v>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="Y93"/>
       <c r="Z93" t="n">
-        <v>8.67476654052734</v>
+        <v>8.43851280212402</v>
       </c>
       <c r="AA93"/>
       <c r="AB93"/>
@@ -9829,7 +9829,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z94" t="n">
-        <v>8.49024200439453</v>
+        <v>8.57126712799072</v>
       </c>
       <c r="AA94" t="n">
         <v>0.354</v>
@@ -9928,7 +9928,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z95" t="n">
-        <v>8.51745700836182</v>
+        <v>8.4737024307251</v>
       </c>
       <c r="AA95" t="n">
         <v>0.398</v>
@@ -10027,7 +10027,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z96" t="n">
-        <v>8.53029441833496</v>
+        <v>8.60618591308594</v>
       </c>
       <c r="AA96" t="n">
         <v>0.186</v>
@@ -10128,7 +10128,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z97" t="n">
-        <v>8.58638954162598</v>
+        <v>8.61892127990723</v>
       </c>
       <c r="AA97" t="n">
         <v>0.072</v>
@@ -10225,7 +10225,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z98" t="n">
-        <v>8.59113597869873</v>
+        <v>8.6405086517334</v>
       </c>
       <c r="AA98" t="n">
         <v>0.04</v>
@@ -10326,7 +10326,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z99" t="n">
-        <v>8.59507656097412</v>
+        <v>8.6486177444458</v>
       </c>
       <c r="AA99" t="n">
         <v>0.07</v>
@@ -10425,7 +10425,7 @@
         <v>-4.6</v>
       </c>
       <c r="Z100" t="n">
-        <v>8.60638427734375</v>
+        <v>8.6174259185791</v>
       </c>
       <c r="AA100" t="n">
         <v>0.058</v>
@@ -10526,7 +10526,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z101" t="n">
-        <v>8.62866020202637</v>
+        <v>8.64021396636963</v>
       </c>
       <c r="AA101" t="n">
         <v>0.066</v>
@@ -10625,7 +10625,7 @@
         <v>-5</v>
       </c>
       <c r="Z102" t="n">
-        <v>8.68627071380615</v>
+        <v>8.68712615966797</v>
       </c>
       <c r="AA102" t="n">
         <v>0.058</v>
@@ -10726,7 +10726,7 @@
         <v>-5</v>
       </c>
       <c r="Z103" t="n">
-        <v>8.64939212799072</v>
+        <v>8.79529190063477</v>
       </c>
       <c r="AA103" t="n">
         <v>0.104</v>
@@ -10827,7 +10827,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z104" t="n">
-        <v>8.69092082977295</v>
+        <v>8.71363925933838</v>
       </c>
       <c r="AA104" t="n">
         <v>0.108</v>
@@ -10928,7 +10928,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z105" t="n">
-        <v>8.754225730896</v>
+        <v>8.68805408477783</v>
       </c>
       <c r="AA105" t="n">
         <v>0.116</v>
@@ -11029,7 +11029,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z106" t="n">
-        <v>8.7965145111084</v>
+        <v>8.73745727539062</v>
       </c>
       <c r="AA106" t="n">
         <v>0.08</v>
@@ -11130,7 +11130,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z107" t="n">
-        <v>8.8666467666626</v>
+        <v>8.83469581604004</v>
       </c>
       <c r="AA107" t="n">
         <v>0.052</v>
@@ -11231,7 +11231,7 @@
         <v>-5</v>
       </c>
       <c r="Z108" t="n">
-        <v>8.3881778717041</v>
+        <v>8.48675918579102</v>
       </c>
       <c r="AA108" t="n">
         <v>0.184</v>
@@ -11332,7 +11332,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z109" t="n">
-        <v>8.39610195159912</v>
+        <v>8.43803215026855</v>
       </c>
       <c r="AA109" t="n">
         <v>0.122</v>
@@ -11433,7 +11433,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z110" t="n">
-        <v>8.47388458251953</v>
+        <v>8.45328807830811</v>
       </c>
       <c r="AA110" t="n">
         <v>0.116</v>
@@ -11532,7 +11532,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z111" t="n">
-        <v>8.5392599105835</v>
+        <v>8.59056663513184</v>
       </c>
       <c r="AA111" t="n">
         <v>0.088</v>
@@ -11633,7 +11633,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z112" t="n">
-        <v>8.64051818847656</v>
+        <v>8.69486713409424</v>
       </c>
       <c r="AA112" t="n">
         <v>0.074</v>
@@ -11734,7 +11734,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z113" t="n">
-        <v>8.56865310668945</v>
+        <v>8.70353984832764</v>
       </c>
       <c r="AA113" t="n">
         <v>0.072</v>
@@ -11835,7 +11835,7 @@
         <v>-5</v>
       </c>
       <c r="Z114" t="n">
-        <v>8.6755428314209</v>
+        <v>8.76462650299072</v>
       </c>
       <c r="AA114" t="n">
         <v>0.06</v>
@@ -11936,7 +11936,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z115" t="n">
-        <v>8.78027820587158</v>
+        <v>8.7550802230835</v>
       </c>
       <c r="AA115" t="n">
         <v>0.054</v>
@@ -12033,7 +12033,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z116" t="n">
-        <v>8.62503433227539</v>
+        <v>8.61444473266602</v>
       </c>
       <c r="AA116" t="n">
         <v>0.116</v>
@@ -12134,7 +12134,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z117" t="n">
-        <v>8.65144157409668</v>
+        <v>8.78886413574219</v>
       </c>
       <c r="AA117" t="n">
         <v>0.0056</v>
@@ -12235,7 +12235,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z118" t="n">
-        <v>8.79692840576172</v>
+        <v>8.74465179443359</v>
       </c>
       <c r="AA118" t="n">
         <v>0.0088</v>
@@ -12334,7 +12334,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z119" t="n">
-        <v>8.69588947296143</v>
+        <v>8.77193641662598</v>
       </c>
       <c r="AA119" t="n">
         <v>0.0052</v>
@@ -12435,7 +12435,7 @@
         <v>-5</v>
       </c>
       <c r="Z120" t="n">
-        <v>8.64674186706543</v>
+        <v>8.72127151489258</v>
       </c>
       <c r="AA120" t="n">
         <v>0.0076</v>
@@ -12536,7 +12536,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z121" t="n">
-        <v>8.65248107910156</v>
+        <v>8.716552734375</v>
       </c>
       <c r="AA121" t="n">
         <v>0.0114</v>
@@ -12635,7 +12635,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z122" t="n">
-        <v>8.68657398223877</v>
+        <v>8.69594478607178</v>
       </c>
       <c r="AA122" t="n">
         <v>0.0088</v>
@@ -12736,7 +12736,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z123" t="n">
-        <v>8.7442045211792</v>
+        <v>8.73713684082031</v>
       </c>
       <c r="AA123" t="n">
         <v>0.007</v>
@@ -12837,7 +12837,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z124" t="n">
-        <v>8.77063274383545</v>
+        <v>8.75406074523926</v>
       </c>
       <c r="AA124" t="n">
         <v>0.007</v>
@@ -12938,7 +12938,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z125" t="n">
-        <v>8.69313049316406</v>
+        <v>8.69470596313477</v>
       </c>
       <c r="AA125" t="n">
         <v>0.0084</v>
@@ -13039,7 +13039,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z126" t="n">
-        <v>8.61682033538818</v>
+        <v>8.60445785522461</v>
       </c>
       <c r="AA126" t="n">
         <v>0.0066</v>
@@ -13140,7 +13140,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z127" t="n">
-        <v>8.42974185943604</v>
+        <v>8.35566234588623</v>
       </c>
       <c r="AA127" t="n">
         <v>0.005</v>
@@ -13241,7 +13241,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z128" t="n">
-        <v>8.47666454315186</v>
+        <v>8.55384159088135</v>
       </c>
       <c r="AA128" t="n">
         <v>0.0094</v>
@@ -13342,7 +13342,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z129" t="n">
-        <v>8.27921962738037</v>
+        <v>8.31617641448975</v>
       </c>
       <c r="AA129" t="n">
         <v>0.0184</v>
@@ -13441,7 +13441,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z130" t="n">
-        <v>8.40238952636719</v>
+        <v>8.46452140808105</v>
       </c>
       <c r="AA130" t="n">
         <v>0.008</v>
@@ -13542,7 +13542,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z131" t="n">
-        <v>8.5164623260498</v>
+        <v>8.49898815155029</v>
       </c>
       <c r="AA131" t="n">
         <v>0.0088</v>
@@ -13641,7 +13641,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z132" t="n">
-        <v>8.58675956726074</v>
+        <v>8.52942657470703</v>
       </c>
       <c r="AA132" t="n">
         <v>0.0072</v>
@@ -13740,7 +13740,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z133" t="n">
-        <v>8.57230567932129</v>
+        <v>8.48136138916016</v>
       </c>
       <c r="AA133" t="n">
         <v>0.0098</v>
@@ -13839,7 +13839,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z134" t="n">
-        <v>8.47268772125244</v>
+        <v>8.57395362854004</v>
       </c>
       <c r="AA134" t="n">
         <v>0.0264</v>
@@ -13936,7 +13936,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z135" t="n">
-        <v>8.49289989471436</v>
+        <v>8.45809936523438</v>
       </c>
       <c r="AA135" t="n">
         <v>0.0108</v>
@@ -14037,7 +14037,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z136" t="n">
-        <v>8.41492748260498</v>
+        <v>8.46721839904785</v>
       </c>
       <c r="AA136" t="n">
         <v>0.0114</v>
@@ -14138,7 +14138,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z137" t="n">
-        <v>8.55013465881348</v>
+        <v>8.45745086669922</v>
       </c>
       <c r="AA137" t="n">
         <v>0.0194</v>
@@ -14235,7 +14235,7 @@
         <v>-4.6</v>
       </c>
       <c r="Z138" t="n">
-        <v>8.54044437408447</v>
+        <v>8.59210681915283</v>
       </c>
       <c r="AA138" t="n">
         <v>0.0466</v>
@@ -14334,7 +14334,7 @@
         <v>-4.6</v>
       </c>
       <c r="Z139" t="n">
-        <v>8.46823215484619</v>
+        <v>8.51704216003418</v>
       </c>
       <c r="AA139" t="n">
         <v>0.0434</v>
@@ -14433,7 +14433,7 @@
         <v>-4.6</v>
       </c>
       <c r="Z140" t="n">
-        <v>8.49112319946289</v>
+        <v>8.43208503723145</v>
       </c>
       <c r="AA140" t="n">
         <v>0.0436</v>
@@ -14532,7 +14532,7 @@
         <v>-5</v>
       </c>
       <c r="Z141" t="n">
-        <v>8.41307163238525</v>
+        <v>8.44452476501465</v>
       </c>
       <c r="AA141" t="n">
         <v>0.0468</v>
@@ -14633,7 +14633,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z142" t="n">
-        <v>8.45603275299072</v>
+        <v>8.47496795654297</v>
       </c>
       <c r="AA142" t="n">
         <v>0.0454</v>
@@ -14734,7 +14734,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z143" t="n">
-        <v>8.5219669342041</v>
+        <v>8.57596302032471</v>
       </c>
       <c r="AA143" t="n">
         <v>0.052</v>
@@ -14835,7 +14835,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z144" t="n">
-        <v>8.54933929443359</v>
+        <v>8.49220848083496</v>
       </c>
       <c r="AA144" t="n">
         <v>0.0572</v>
@@ -14936,7 +14936,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z145" t="n">
-        <v>8.50694274902344</v>
+        <v>8.54815578460693</v>
       </c>
       <c r="AA145" t="n">
         <v>0.0374</v>
@@ -15035,7 +15035,7 @@
         <v>-6.2</v>
       </c>
       <c r="Z146" t="n">
-        <v>8.34591865539551</v>
+        <v>8.33932781219482</v>
       </c>
       <c r="AA146" t="n">
         <v>0.0322</v>
@@ -15136,7 +15136,7 @@
         <v>-6.2</v>
       </c>
       <c r="Z147" t="n">
-        <v>8.41147804260254</v>
+        <v>8.44266128540039</v>
       </c>
       <c r="AA147" t="n">
         <v>0.033</v>
@@ -15237,7 +15237,7 @@
         <v>-6.2</v>
       </c>
       <c r="Z148" t="n">
-        <v>8.37702083587646</v>
+        <v>8.39056777954102</v>
       </c>
       <c r="AA148" t="n">
         <v>0.0332</v>
@@ -15338,7 +15338,7 @@
         <v>-6.2</v>
       </c>
       <c r="Z149" t="n">
-        <v>8.55033016204834</v>
+        <v>8.56539535522461</v>
       </c>
       <c r="AA149" t="n">
         <v>0.0364</v>
@@ -15437,7 +15437,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z150" t="n">
-        <v>8.52606964111328</v>
+        <v>8.45151042938232</v>
       </c>
       <c r="AA150" t="n">
         <v>0.0444</v>
@@ -15538,7 +15538,7 @@
         <v>-6</v>
       </c>
       <c r="Z151" t="n">
-        <v>8.59982872009277</v>
+        <v>8.63014125823975</v>
       </c>
       <c r="AA151" t="n">
         <v>0.0414</v>
@@ -15639,7 +15639,7 @@
         <v>-6</v>
       </c>
       <c r="Z152" t="n">
-        <v>8.62538623809814</v>
+        <v>8.66612815856934</v>
       </c>
       <c r="AA152" t="n">
         <v>0.0414</v>
@@ -15740,7 +15740,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z153" t="n">
-        <v>8.61892414093018</v>
+        <v>8.57520866394043</v>
       </c>
       <c r="AA153" t="n">
         <v>0.0372</v>
@@ -15841,7 +15841,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z154" t="n">
-        <v>8.44439125061035</v>
+        <v>8.45412349700928</v>
       </c>
       <c r="AA154" t="n">
         <v>0.034</v>
@@ -15942,7 +15942,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z155" t="n">
-        <v>8.61251068115234</v>
+        <v>8.66280555725098</v>
       </c>
       <c r="AA155" t="n">
         <v>0.0328</v>
@@ -16043,7 +16043,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z156" t="n">
-        <v>8.42844486236572</v>
+        <v>8.43140888214111</v>
       </c>
       <c r="AA156" t="n">
         <v>0.0336</v>
@@ -16144,7 +16144,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z157" t="n">
-        <v>8.43842506408691</v>
+        <v>8.4516544342041</v>
       </c>
       <c r="AA157" t="n">
         <v>0.0324</v>
@@ -16245,7 +16245,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z158" t="n">
-        <v>8.46343994140625</v>
+        <v>8.43178176879883</v>
       </c>
       <c r="AA158" t="n">
         <v>0.0368</v>
@@ -16346,7 +16346,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z159" t="n">
-        <v>8.40910625457764</v>
+        <v>8.46440124511719</v>
       </c>
       <c r="AA159" t="n">
         <v>0.0294</v>
@@ -16447,7 +16447,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z160" t="n">
-        <v>8.46415615081787</v>
+        <v>8.6325569152832</v>
       </c>
       <c r="AA160" t="n">
         <v>0.0304</v>
@@ -16548,7 +16548,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z161" t="n">
-        <v>8.51656246185303</v>
+        <v>8.47654151916504</v>
       </c>
       <c r="AA161" t="n">
         <v>0.0444</v>
@@ -16647,7 +16647,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z162" t="n">
-        <v>8.63441181182861</v>
+        <v>8.54762077331543</v>
       </c>
       <c r="AA162" t="n">
         <v>0.0384</v>
@@ -16746,7 +16746,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z163" t="n">
-        <v>8.63862419128418</v>
+        <v>8.62928104400635</v>
       </c>
       <c r="AA163" t="n">
         <v>0.0306</v>
@@ -16847,7 +16847,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z164" t="n">
-        <v>8.65381145477295</v>
+        <v>8.64101600646973</v>
       </c>
       <c r="AA164" t="n">
         <v>0.0344</v>
@@ -16948,7 +16948,7 @@
         <v>-5</v>
       </c>
       <c r="Z165" t="n">
-        <v>8.63655948638916</v>
+        <v>8.60328769683838</v>
       </c>
       <c r="AA165" t="n">
         <v>0.0332</v>
@@ -17049,7 +17049,7 @@
         <v>-5</v>
       </c>
       <c r="Z166" t="n">
-        <v>8.67553043365479</v>
+        <v>8.66575717926025</v>
       </c>
       <c r="AA166" t="n">
         <v>0.0334</v>
@@ -17148,7 +17148,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z167" t="n">
-        <v>8.66187477111816</v>
+        <v>8.66738796234131</v>
       </c>
       <c r="AA167" t="n">
         <v>0.0312</v>
@@ -17249,7 +17249,7 @@
         <v>-5</v>
       </c>
       <c r="Z168" t="n">
-        <v>8.48039436340332</v>
+        <v>8.45248031616211</v>
       </c>
       <c r="AA168" t="n">
         <v>0.03</v>
@@ -17350,7 +17350,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z169" t="n">
-        <v>8.74951934814453</v>
+        <v>8.74474716186523</v>
       </c>
       <c r="AA169" t="n">
         <v>0.028</v>
@@ -17451,7 +17451,7 @@
         <v>-6</v>
       </c>
       <c r="Z170" t="n">
-        <v>8.67114162445068</v>
+        <v>8.50787448883057</v>
       </c>
       <c r="AA170" t="n">
         <v>0.029</v>
@@ -17552,7 +17552,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z171" t="n">
-        <v>8.790283203125</v>
+        <v>8.67532157897949</v>
       </c>
       <c r="AA171" t="n">
         <v>0.038</v>
@@ -17651,7 +17651,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z172" t="n">
-        <v>8.58057022094727</v>
+        <v>8.59582042694092</v>
       </c>
       <c r="AA172" t="n">
         <v>0.057</v>
@@ -17750,7 +17750,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z173" t="n">
-        <v>8.63068008422852</v>
+        <v>8.52321624755859</v>
       </c>
       <c r="AA173" t="n">
         <v>0.0352</v>
@@ -17851,7 +17851,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z174" t="n">
-        <v>8.43560409545898</v>
+        <v>8.38798809051514</v>
       </c>
       <c r="AA174" t="n">
         <v>0.0292</v>
@@ -17952,7 +17952,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z175" t="n">
-        <v>8.42627239227295</v>
+        <v>8.46669006347656</v>
       </c>
       <c r="AA175" t="n">
         <v>0.038</v>
@@ -18053,7 +18053,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z176" t="n">
-        <v>8.53489971160889</v>
+        <v>8.4984245300293</v>
       </c>
       <c r="AA176" t="n">
         <v>0.038</v>
@@ -18154,7 +18154,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z177" t="n">
-        <v>8.55471420288086</v>
+        <v>8.57715129852295</v>
       </c>
       <c r="AA177" t="n">
         <v>0.033</v>
@@ -18255,7 +18255,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z178" t="n">
-        <v>8.3856143951416</v>
+        <v>8.40593528747559</v>
       </c>
       <c r="AA178" t="n">
         <v>0.0346</v>
@@ -18356,7 +18356,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z179" t="n">
-        <v>8.40598201751709</v>
+        <v>8.52610015869141</v>
       </c>
       <c r="AA179" t="n">
         <v>0.0338</v>
@@ -18455,7 +18455,7 @@
         <v>-5</v>
       </c>
       <c r="Z180" t="n">
-        <v>8.33879661560059</v>
+        <v>8.35795116424561</v>
       </c>
       <c r="AA180" t="n">
         <v>0.0306</v>
@@ -18556,7 +18556,7 @@
         <v>-5</v>
       </c>
       <c r="Z181" t="n">
-        <v>8.52043342590332</v>
+        <v>8.52368640899658</v>
       </c>
       <c r="AA181" t="n">
         <v>0.0336</v>
@@ -18657,7 +18657,7 @@
         <v>-5</v>
       </c>
       <c r="Z182" t="n">
-        <v>8.42886257171631</v>
+        <v>8.43694019317627</v>
       </c>
       <c r="AA182" t="n">
         <v>0.0452</v>
@@ -18758,7 +18758,7 @@
         <v>-5</v>
       </c>
       <c r="Z183" t="n">
-        <v>8.56694984436035</v>
+        <v>8.58753204345703</v>
       </c>
       <c r="AA183" t="n">
         <v>0.0318</v>
@@ -18859,7 +18859,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z184" t="n">
-        <v>8.50089359283447</v>
+        <v>8.50461483001709</v>
       </c>
       <c r="AA184" t="n">
         <v>0.0316</v>
@@ -18960,7 +18960,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z185" t="n">
-        <v>8.44517993927002</v>
+        <v>8.47537708282471</v>
       </c>
       <c r="AA185" t="n">
         <v>0.0396</v>
@@ -19059,7 +19059,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z186" t="n">
-        <v>8.55324268341064</v>
+        <v>8.50677967071533</v>
       </c>
       <c r="AA186" t="n">
         <v>0.0308</v>
@@ -19160,7 +19160,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z187" t="n">
-        <v>8.33340358734131</v>
+        <v>8.32660579681396</v>
       </c>
       <c r="AA187" t="n">
         <v>0.03</v>
@@ -19261,7 +19261,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z188" t="n">
-        <v>8.32276058197021</v>
+        <v>8.34829616546631</v>
       </c>
       <c r="AA188" t="n">
         <v>0.0358</v>
@@ -19362,7 +19362,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z189" t="n">
-        <v>8.43988609313965</v>
+        <v>8.44431114196777</v>
       </c>
       <c r="AA189" t="n">
         <v>0.0556</v>
@@ -19463,7 +19463,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z190" t="n">
-        <v>8.41423511505127</v>
+        <v>8.42445468902588</v>
       </c>
       <c r="AA190" t="n">
         <v>0.0382</v>
@@ -19564,7 +19564,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z191" t="n">
-        <v>8.34094619750977</v>
+        <v>8.34923648834229</v>
       </c>
       <c r="AA191" t="n">
         <v>0.0368</v>
@@ -19665,7 +19665,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z192" t="n">
-        <v>8.36940097808838</v>
+        <v>8.31060123443604</v>
       </c>
       <c r="AA192" t="n">
         <v>0.0412</v>
@@ -19766,7 +19766,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z193" t="n">
-        <v>8.52016162872314</v>
+        <v>8.49907493591309</v>
       </c>
       <c r="AA193" t="n">
         <v>0.0318</v>
@@ -19867,7 +19867,7 @@
         <v>-5</v>
       </c>
       <c r="Z194" t="n">
-        <v>8.59059143066406</v>
+        <v>8.53218650817871</v>
       </c>
       <c r="AA194" t="n">
         <v>0.0476</v>
@@ -19966,7 +19966,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z195" t="n">
-        <v>8.51427745819092</v>
+        <v>8.51509189605713</v>
       </c>
       <c r="AA195" t="n">
         <v>0.0504</v>
@@ -20067,7 +20067,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z196" t="n">
-        <v>8.47318649291992</v>
+        <v>8.43651390075684</v>
       </c>
       <c r="AA196" t="n">
         <v>0.0332</v>
@@ -20168,7 +20168,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z197" t="n">
-        <v>8.26138305664062</v>
+        <v>8.32388973236084</v>
       </c>
       <c r="AA197" t="n">
         <v>0.0326</v>
@@ -20269,7 +20269,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z198" t="n">
-        <v>8.30102348327637</v>
+        <v>8.29989242553711</v>
       </c>
       <c r="AA198" t="n">
         <v>0.0342</v>
@@ -20370,7 +20370,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z199" t="n">
-        <v>8.32738208770752</v>
+        <v>8.18520164489746</v>
       </c>
       <c r="AA199" t="n">
         <v>0.0338</v>
@@ -20471,7 +20471,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z200" t="n">
-        <v>8.17426300048828</v>
+        <v>8.14438056945801</v>
       </c>
       <c r="AA200" t="n">
         <v>0.0434</v>
@@ -20572,7 +20572,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z201" t="n">
-        <v>8.40838527679443</v>
+        <v>8.4376745223999</v>
       </c>
       <c r="AA201" t="n">
         <v>0.0428</v>
@@ -20673,7 +20673,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z202" t="n">
-        <v>8.36366653442383</v>
+        <v>8.33131313323975</v>
       </c>
       <c r="AA202" t="n">
         <v>0.053</v>
@@ -20774,7 +20774,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z203" t="n">
-        <v>8.38496112823486</v>
+        <v>8.39059543609619</v>
       </c>
       <c r="AA203" t="n">
         <v>0.04</v>
@@ -20873,7 +20873,7 @@
         <v>-6</v>
       </c>
       <c r="Z204" t="n">
-        <v>8.52867031097412</v>
+        <v>8.43065166473389</v>
       </c>
       <c r="AA204" t="n">
         <v>0.0536</v>
@@ -20974,7 +20974,7 @@
         <v>-6.2</v>
       </c>
       <c r="Z205" t="n">
-        <v>8.32206726074219</v>
+        <v>8.34264659881592</v>
       </c>
       <c r="AA205" t="n">
         <v>0.0304</v>
@@ -21075,7 +21075,7 @@
         <v>-6.2</v>
       </c>
       <c r="Z206" t="n">
-        <v>8.35990047454834</v>
+        <v>8.36263275146484</v>
       </c>
       <c r="AA206" t="n">
         <v>0.0306</v>
@@ -21176,7 +21176,7 @@
         <v>-6.4</v>
       </c>
       <c r="Z207" t="n">
-        <v>8.49894905090332</v>
+        <v>8.49145412445068</v>
       </c>
       <c r="AA207" t="n">
         <v>0.0312</v>
@@ -21277,7 +21277,7 @@
         <v>-6.4</v>
       </c>
       <c r="Z208" t="n">
-        <v>8.50335121154785</v>
+        <v>8.42918395996094</v>
       </c>
       <c r="AA208" t="n">
         <v>0.0322</v>
@@ -21376,7 +21376,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z209" t="n">
-        <v>8.42637634277344</v>
+        <v>8.38329219818115</v>
       </c>
       <c r="AA209" t="n">
         <v>0.0484</v>
@@ -21477,7 +21477,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z210" t="n">
-        <v>8.42840576171875</v>
+        <v>8.47974586486816</v>
       </c>
       <c r="AA210" t="n">
         <v>0.0486</v>
@@ -21578,7 +21578,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z211" t="n">
-        <v>8.21994972229004</v>
+        <v>8.24710750579834</v>
       </c>
       <c r="AA211" t="n">
         <v>0.0348</v>
@@ -21679,7 +21679,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z212" t="n">
-        <v>8.32438564300537</v>
+        <v>8.27808856964111</v>
       </c>
       <c r="AA212" t="n">
         <v>0.046</v>
@@ -21780,7 +21780,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z213" t="n">
-        <v>8.37832450866699</v>
+        <v>8.36551380157471</v>
       </c>
       <c r="AA213" t="n">
         <v>0.0358</v>
@@ -21881,7 +21881,7 @@
         <v>-6</v>
       </c>
       <c r="Z214" t="n">
-        <v>8.45045948028564</v>
+        <v>8.42348575592041</v>
       </c>
       <c r="AA214" t="n">
         <v>0.0326</v>
@@ -21982,7 +21982,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z215" t="n">
-        <v>8.51381874084473</v>
+        <v>8.49493598937988</v>
       </c>
       <c r="AA215" t="n">
         <v>0.0158</v>
@@ -22083,7 +22083,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z216" t="n">
-        <v>8.45586681365967</v>
+        <v>8.36167907714844</v>
       </c>
       <c r="AA216" t="n">
         <v>0.0114</v>
@@ -22184,7 +22184,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z217" t="n">
-        <v>8.44620227813721</v>
+        <v>8.47939491271973</v>
       </c>
       <c r="AA217" t="n">
         <v>0.03</v>
@@ -22285,7 +22285,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z218" t="n">
-        <v>8.36911487579346</v>
+        <v>8.35416412353516</v>
       </c>
       <c r="AA218" t="n">
         <v>0.0026</v>
@@ -22386,7 +22386,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z219" t="n">
-        <v>8.35553073883057</v>
+        <v>8.37910747528076</v>
       </c>
       <c r="AA219" t="n">
         <v>0.0048</v>
@@ -22487,7 +22487,7 @@
         <v>-5</v>
       </c>
       <c r="Z220" t="n">
-        <v>8.56199932098389</v>
+        <v>8.55448532104492</v>
       </c>
       <c r="AA220" t="n">
         <v>0.009</v>
@@ -22588,7 +22588,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z221" t="n">
-        <v>8.52270603179932</v>
+        <v>8.46842098236084</v>
       </c>
       <c r="AA221" t="n">
         <v>0.0094</v>
@@ -22689,7 +22689,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z222" t="n">
-        <v>8.46965885162354</v>
+        <v>8.51466274261475</v>
       </c>
       <c r="AA222" t="n">
         <v>0.0026</v>
@@ -22790,7 +22790,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z223" t="n">
-        <v>8.49981594085693</v>
+        <v>8.49326705932617</v>
       </c>
       <c r="AA223" t="n">
         <v>0.0026</v>
@@ -22891,7 +22891,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z224" t="n">
-        <v>8.48523616790771</v>
+        <v>8.4698543548584</v>
       </c>
       <c r="AA224" t="n">
         <v>0.0026</v>
@@ -22992,7 +22992,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z225" t="n">
-        <v>8.20877838134766</v>
+        <v>8.25323295593262</v>
       </c>
       <c r="AA225" t="n">
         <v>0.0026</v>
@@ -23093,7 +23093,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z226" t="n">
-        <v>8.58561134338379</v>
+        <v>8.58258438110352</v>
       </c>
       <c r="AA226" t="n">
         <v>0.0154</v>
@@ -23194,7 +23194,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z227" t="n">
-        <v>8.49456310272217</v>
+        <v>8.44994640350342</v>
       </c>
       <c r="AA227" t="n">
         <v>0.0066</v>
@@ -23291,7 +23291,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z228" t="n">
-        <v>8.4745922088623</v>
+        <v>8.44842052459717</v>
       </c>
       <c r="AA228" t="n">
         <v>0.0036</v>
@@ -23392,7 +23392,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z229" t="n">
-        <v>8.42903423309326</v>
+        <v>8.40230751037598</v>
       </c>
       <c r="AA229" t="n">
         <v>0.0048</v>
@@ -23493,7 +23493,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z230" t="n">
-        <v>8.47880268096924</v>
+        <v>8.44454860687256</v>
       </c>
       <c r="AA230" t="n">
         <v>0.0026</v>
@@ -23594,7 +23594,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z231" t="n">
-        <v>8.45382976531982</v>
+        <v>8.43990421295166</v>
       </c>
       <c r="AA231" t="n">
         <v>0.0026</v>
@@ -23695,7 +23695,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z232" t="n">
-        <v>8.45695781707764</v>
+        <v>8.41531658172607</v>
       </c>
       <c r="AA232" t="n">
         <v>0.0026</v>
@@ -23794,7 +23794,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z233" t="n">
-        <v>8.50978565216064</v>
+        <v>8.48685359954834</v>
       </c>
       <c r="AA233" t="n">
         <v>0.0196</v>
@@ -23895,7 +23895,7 @@
         <v>-5</v>
       </c>
       <c r="Z234" t="n">
-        <v>8.54176807403564</v>
+        <v>8.52053260803223</v>
       </c>
       <c r="AA234" t="n">
         <v>0.023</v>
@@ -23996,7 +23996,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z235" t="n">
-        <v>8.5978536605835</v>
+        <v>8.61916255950928</v>
       </c>
       <c r="AA235" t="n">
         <v>0.0218</v>
@@ -24097,7 +24097,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z236" t="n">
-        <v>8.62908363342285</v>
+        <v>8.63322830200195</v>
       </c>
       <c r="AA236" t="n">
         <v>0.0282</v>
@@ -24198,7 +24198,7 @@
         <v>-5</v>
       </c>
       <c r="Z237" t="n">
-        <v>8.46100807189941</v>
+        <v>8.49029159545898</v>
       </c>
       <c r="AA237" t="n">
         <v>0.0166</v>
@@ -24299,7 +24299,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z238" t="n">
-        <v>8.5941915512085</v>
+        <v>8.65622329711914</v>
       </c>
       <c r="AA238" t="n">
         <v>0.0162</v>
@@ -24400,7 +24400,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z239" t="n">
-        <v>8.6159839630127</v>
+        <v>8.63796424865723</v>
       </c>
       <c r="AA239" t="n">
         <v>0.0126</v>
@@ -24501,7 +24501,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z240" t="n">
-        <v>8.43039417266846</v>
+        <v>8.53144073486328</v>
       </c>
       <c r="AA240" t="n">
         <v>0.0102</v>
@@ -24602,7 +24602,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z241" t="n">
-        <v>8.51998424530029</v>
+        <v>8.51308917999268</v>
       </c>
       <c r="AA241" t="n">
         <v>0.0108</v>
@@ -24703,7 +24703,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z242" t="n">
-        <v>8.51704597473145</v>
+        <v>8.46762752532959</v>
       </c>
       <c r="AA242" t="n">
         <v>0.0124</v>
@@ -24804,7 +24804,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z243" t="n">
-        <v>8.49960994720459</v>
+        <v>8.55631637573242</v>
       </c>
       <c r="AA243" t="n">
         <v>0.0096</v>
@@ -24903,7 +24903,7 @@
         <v>-5.4</v>
       </c>
       <c r="Z244" t="n">
-        <v>8.48464393615723</v>
+        <v>8.48448181152344</v>
       </c>
       <c r="AA244" t="n">
         <v>0.0292</v>
@@ -25004,7 +25004,7 @@
         <v>-5</v>
       </c>
       <c r="Z245" t="n">
-        <v>8.55202674865723</v>
+        <v>8.53559303283691</v>
       </c>
       <c r="AA245" t="n">
         <v>0.0118</v>
@@ -25105,7 +25105,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z246" t="n">
-        <v>8.39968776702881</v>
+        <v>8.41742324829102</v>
       </c>
       <c r="AA246" t="n">
         <v>0.0042</v>
@@ -25206,7 +25206,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z247" t="n">
-        <v>8.35718536376953</v>
+        <v>8.43801307678223</v>
       </c>
       <c r="AA247" t="n">
         <v>0.0062</v>
@@ -25307,7 +25307,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z248" t="n">
-        <v>8.34043979644775</v>
+        <v>8.49198436737061</v>
       </c>
       <c r="AA248" t="n">
         <v>0.0024</v>
@@ -25408,7 +25408,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z249" t="n">
-        <v>8.50731372833252</v>
+        <v>8.51846504211426</v>
       </c>
       <c r="AA249" t="n">
         <v>0.0024</v>
@@ -25505,7 +25505,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z250" t="n">
-        <v>8.58672618865967</v>
+        <v>8.50932216644287</v>
       </c>
       <c r="AA250" t="n">
         <v>0.0026</v>
@@ -25606,7 +25606,7 @@
         <v>-6</v>
       </c>
       <c r="Z251" t="n">
-        <v>8.55001831054688</v>
+        <v>8.491623878479</v>
       </c>
       <c r="AA251" t="n">
         <v>0.0026</v>
@@ -25705,7 +25705,7 @@
         <v>-5</v>
       </c>
       <c r="Z252" t="n">
-        <v>8.44363021850586</v>
+        <v>8.53414440155029</v>
       </c>
       <c r="AA252" t="n">
         <v>0.0026</v>
@@ -25806,7 +25806,7 @@
         <v>-5</v>
       </c>
       <c r="Z253" t="n">
-        <v>8.44796943664551</v>
+        <v>8.46943759918213</v>
       </c>
       <c r="AA253" t="n">
         <v>0.006</v>
@@ -25903,7 +25903,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z254" t="n">
-        <v>8.5098934173584</v>
+        <v>8.49954223632812</v>
       </c>
       <c r="AA254" t="n">
         <v>0.0196</v>
@@ -26004,7 +26004,7 @@
         <v>-4.6</v>
       </c>
       <c r="Z255" t="n">
-        <v>8.55377578735352</v>
+        <v>8.53693771362305</v>
       </c>
       <c r="AA255" t="n">
         <v>0.0476</v>
@@ -26105,7 +26105,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z256" t="n">
-        <v>8.58637142181396</v>
+        <v>8.57363414764404</v>
       </c>
       <c r="AA256" t="n">
         <v>0.0136</v>
@@ -26196,7 +26196,7 @@
         <v>-4.6</v>
       </c>
       <c r="Z257" t="n">
-        <v>8.44510746002197</v>
+        <v>8.53176879882812</v>
       </c>
       <c r="AA257" t="n">
         <v>0.011</v>
@@ -26293,7 +26293,7 @@
         <v>-5.2</v>
       </c>
       <c r="Z258" t="n">
-        <v>8.51437568664551</v>
+        <v>8.49159336090088</v>
       </c>
       <c r="AA258" t="n">
         <v>0.0282</v>
@@ -26394,7 +26394,7 @@
         <v>-6</v>
       </c>
       <c r="Z259" t="n">
-        <v>8.68719577789307</v>
+        <v>8.63972568511963</v>
       </c>
       <c r="AA259" t="n">
         <v>0.0148</v>
@@ -26495,7 +26495,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z260" t="n">
-        <v>8.53743457794189</v>
+        <v>8.53906631469727</v>
       </c>
       <c r="AA260" t="n">
         <v>0.0108</v>
@@ -26596,7 +26596,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z261" t="n">
-        <v>8.47079944610596</v>
+        <v>8.50932884216309</v>
       </c>
       <c r="AA261" t="n">
         <v>0.0026</v>
@@ -26697,7 +26697,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z262" t="n">
-        <v>8.56850433349609</v>
+        <v>8.58583450317383</v>
       </c>
       <c r="AA262" t="n">
         <v>0.0026</v>
@@ -26798,7 +26798,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z263" t="n">
-        <v>8.69072914123535</v>
+        <v>8.6056432723999</v>
       </c>
       <c r="AA263" t="n">
         <v>0.0074</v>
@@ -26899,7 +26899,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z264" t="n">
-        <v>8.53382682800293</v>
+        <v>8.51178359985352</v>
       </c>
       <c r="AA264" t="n">
         <v>0.0038</v>
@@ -27000,7 +27000,7 @@
         <v>-5.6</v>
       </c>
       <c r="Z265" t="n">
-        <v>8.57912731170654</v>
+        <v>8.66504287719727</v>
       </c>
       <c r="AA265" t="n">
         <v>0.0024</v>
@@ -27101,7 +27101,7 @@
         <v>-6.2</v>
       </c>
       <c r="Z266" t="n">
-        <v>8.34432983398438</v>
+        <v>8.23944759368896</v>
       </c>
       <c r="AA266" t="n">
         <v>0.0068</v>
@@ -27202,7 +27202,7 @@
         <v>-6</v>
       </c>
       <c r="Z267" t="n">
-        <v>8.30768489837646</v>
+        <v>8.3470287322998</v>
       </c>
       <c r="AA267" t="n">
         <v>0.0026</v>
@@ -27303,7 +27303,7 @@
         <v>-5.8</v>
       </c>
       <c r="Z268" t="n">
-        <v>8.21283435821533</v>
+        <v>8.16775321960449</v>
       </c>
       <c r="AA268" t="n">
         <v>0.0062</v>
